--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="21">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -37,97 +37,46 @@
     <t>Exclusions</t>
   </si>
   <si>
-    <t>Single Meal</t>
+    <t>Single Normal *</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Couple Normal *</t>
+  </si>
+  <si>
+    <t>Three Normal *</t>
+  </si>
+  <si>
+    <t>Four Normal *</t>
+  </si>
+  <si>
+    <t>Five Normal *</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>No Red's</t>
+    <t>Six Normal *</t>
+  </si>
+  <si>
+    <t>Meal Type : Low Carb  Route: 1</t>
+  </si>
+  <si>
+    <t>Meal Type : Low Carb  Route: 2</t>
+  </si>
+  <si>
+    <t>Three Meal</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>No Cocaine</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Pistachios</t>
-  </si>
-  <si>
-    <t>Single Normal *</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Couple Normal *</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Three Normal *</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Four Normal *</t>
-  </si>
-  <si>
-    <t>Five Normal *</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Six Meal</t>
-  </si>
-  <si>
-    <t>No olives</t>
-  </si>
-  <si>
-    <t>Six Normal *</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Meal Type : Low Carb  Route: 1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Couple Meal</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>No Salt</t>
-  </si>
-  <si>
-    <t>Three Meal</t>
-  </si>
-  <si>
-    <t>No nuts</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Meal Type : Low Carb  Route: 2</t>
-  </si>
-  <si>
-    <t>Grapes</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>No Cocaine</t>
-  </si>
-  <si>
-    <t>Absolutely no nuts</t>
   </si>
 </sst>
 </file>
@@ -135,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="162">
+  <fonts count="134">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -332,54 +281,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -567,38 +468,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -687,38 +556,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -941,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -988,180 +825,152 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -1260,32 +1069,32 @@
         <v>8</v>
       </c>
       <c r="C4" t="s" s="18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="21">
         <v>8</v>
       </c>
       <c r="C5" t="s" s="22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s" s="23">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="25">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="26">
         <v>1</v>
@@ -1296,10 +1105,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s" s="29">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s" s="30">
         <v>1</v>
@@ -1310,10 +1119,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="32">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="33">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s" s="34">
         <v>1</v>
@@ -1324,57 +1133,15 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="37">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s" s="38">
         <v>1</v>
       </c>
       <c r="D9" t="s" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="40">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s" s="41">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="44">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s" s="45">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="46">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s" s="47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="48">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s" s="49">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s" s="50">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="51">
         <v>1</v>
       </c>
     </row>
@@ -1402,165 +1169,137 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="52">
+      <c r="A1" t="s" s="40">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="53">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="54">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="55">
-        <v>25</v>
+      <c r="B1" t="s" s="41">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="43">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="56">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="57">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="58">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="59">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="60">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="61">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="62">
+      <c r="A2" t="s" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="63">
+      <c r="A3" t="s" s="51">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="64">
+      <c r="B3" t="s" s="52">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="65">
+      <c r="C3" t="s" s="53">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="66">
+      <c r="D3" t="s" s="54">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="67">
+      <c r="A4" t="s" s="55">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="56">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="59">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="60">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="61">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="63">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="64">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="65">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="67">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="68">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="71">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="68">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="71">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="72">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="73">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s" s="74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="75">
+      <c r="B8" t="s" s="72">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="73">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="75">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="76">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s" s="80">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="81">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s" s="82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="83">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="84">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="87">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s" s="88">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="91">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s" s="92">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s" s="93">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="95">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s" s="96">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s" s="97">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="98">
+      <c r="B9" t="s" s="76">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="78">
         <v>1</v>
       </c>
     </row>
@@ -1588,179 +1327,151 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="99">
+      <c r="A1" t="s" s="79">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="100">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="101">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="102">
-        <v>33</v>
+      <c r="B1" t="s" s="80">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="81">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="82">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="103">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="104">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="105">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="107">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="108">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="109">
+      <c r="A2" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="84">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="110">
+      <c r="A3" t="s" s="90">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="111">
+      <c r="B3" t="s" s="91">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="112">
+      <c r="C3" t="s" s="92">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="113">
+      <c r="D3" t="s" s="93">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="114">
+      <c r="A4" t="s" s="94">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="95">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="96">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="98">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="99">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="100">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="102">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="103">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="106">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="107">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="108">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="110">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="111">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="114">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="115">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="118">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="119">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="120">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s" s="121">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="122">
+      <c r="B9" t="s" s="115">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="116">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="118">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="123">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="126">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s" s="127">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s" s="128">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="129">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="130">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="131">
+      <c r="B10" t="s" s="119">
         <v>8</v>
       </c>
-      <c r="C8" t="s" s="132">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s" s="133">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="134">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s" s="135">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s" s="136">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="138">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="139">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s" s="140">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="142">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s" s="143">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s" s="144">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="146">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s" s="147">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s" s="148">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="149">
+      <c r="C10" t="s" s="120">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="121">
         <v>1</v>
       </c>
     </row>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -61,10 +61,25 @@
     <t>Six Normal *</t>
   </si>
   <si>
+    <t>Thu Oct 2016 17:48:40</t>
+  </si>
+  <si>
     <t>Meal Type : Low Carb  Route: 1</t>
   </si>
   <si>
     <t>Meal Type : Low Carb  Route: 2</t>
+  </si>
+  <si>
+    <t>Three Meal</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>No Cocaine</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -72,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="130">
+  <fonts count="134">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -544,6 +559,22 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -750,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -821,6 +852,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -890,6 +924,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -943,22 +980,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1113,9 +1157,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="40">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1137,143 +1187,149 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="40">
+      <c r="A1" t="s" s="41">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="41">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="43">
+      <c r="B1" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="52">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="53">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="54">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="56">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="57">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="60">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="61">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="64">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="65">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="68">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="69">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="72">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="73">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="76">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="80">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="44">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="45">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="46">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="47">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="48">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="49">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="51">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="52">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="53">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="55">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="56">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="57">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="59">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="60">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="61">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="63">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="64">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="65">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="67">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="68">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="71">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="72">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="73">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="75">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="76">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="78">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1295,143 +1351,163 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="79">
+      <c r="A1" t="s" s="81">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="80">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="81">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="82">
-        <v>16</v>
+      <c r="B1" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="84">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="84">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="89">
+      <c r="A2" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="89">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="90">
+      <c r="A3" t="s" s="92">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="91">
+      <c r="B3" t="s" s="93">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="92">
+      <c r="C3" t="s" s="94">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="93">
+      <c r="D3" t="s" s="95">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="94">
+      <c r="A4" t="s" s="96">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="95">
+      <c r="B4" t="s" s="97">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="96">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="97">
+      <c r="C4" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="98">
+      <c r="A5" t="s" s="100">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="99">
+      <c r="B5" t="s" s="101">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="100">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="101">
+      <c r="C5" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="102">
+      <c r="A6" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="105">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="106">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="107">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="108">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="103">
+      <c r="B7" t="s" s="109">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="104">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="106">
+      <c r="C7" t="s" s="110">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="112">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="107">
+      <c r="B8" t="s" s="113">
         <v>8</v>
       </c>
-      <c r="C7" t="s" s="108">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="110">
+      <c r="C8" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="116">
         <v>12</v>
       </c>
-      <c r="B8" t="s" s="111">
+      <c r="B9" t="s" s="117">
         <v>8</v>
       </c>
-      <c r="C8" t="s" s="112">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="114">
+      <c r="C9" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="120">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="115">
+      <c r="B10" t="s" s="121">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="117">
-        <v>1</v>
+      <c r="C10" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="124">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
@@ -9,12 +9,13 @@
     <sheet name="ChefReports Route - 0" r:id="rId3" sheetId="1"/>
     <sheet name="ChefReports Route - 1" r:id="rId4" sheetId="2"/>
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
+    <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="18">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -37,49 +38,16 @@
     <t>Exclusions</t>
   </si>
   <si>
-    <t>Single Meal</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Pistachios</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>dbjfcad</t>
-  </si>
-  <si>
     <t>Single Normal *</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Couple Meal</t>
-  </si>
-  <si>
-    <t>No Red's</t>
-  </si>
-  <si>
-    <t>Human blood</t>
-  </si>
-  <si>
-    <t>Rabbit blood</t>
+    <t>0</t>
   </si>
   <si>
     <t>Couple Normal *</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Three Normal *</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>Four Normal *</t>
@@ -88,58 +56,19 @@
     <t>Five Normal *</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Six Meal</t>
-  </si>
-  <si>
-    <t>No olives</t>
-  </si>
-  <si>
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Fri Oct 2016 10:14:18</t>
+    <t>Fri Oct 2016 13:59:37</t>
   </si>
   <si>
     <t>Meal Type : Low Carb  Route: 1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>No Salt</t>
-  </si>
-  <si>
-    <t>Three Meal</t>
-  </si>
-  <si>
-    <t>No nuts</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Meal Type : Low Carb  Route: 2</t>
   </si>
   <si>
-    <t>Grapes</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>No Cocaine</t>
-  </si>
-  <si>
-    <t>Absolutely no nuts</t>
+    <t>Meal Type : Low Carb  Route: 3</t>
   </si>
 </sst>
 </file>
@@ -147,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="170">
+  <fonts count="173">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -344,86 +273,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -611,38 +460,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -779,6 +596,145 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1032,46 +988,26 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1079,67 +1015,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1159,71 +1087,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1321,32 +1309,32 @@
         <v>8</v>
       </c>
       <c r="C4" t="s" s="18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="21">
         <v>8</v>
       </c>
       <c r="C5" t="s" s="22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s" s="23">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="25">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="26">
         <v>1</v>
@@ -1357,38 +1345,38 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s" s="29">
         <v>8</v>
       </c>
       <c r="C7" t="s" s="30">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s" s="31">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="33">
         <v>8</v>
       </c>
       <c r="C8" t="s" s="34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s" s="35">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="36">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s" s="37">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s" s="38">
         <v>1</v>
@@ -1397,85 +1385,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="40">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s" s="41">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="43">
-        <v>1</v>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" t="s" s="44">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s" s="45">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s" s="46">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="48">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s" s="49">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s" s="50">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="52">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s" s="53">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s" s="54">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s" s="55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="56">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s" s="57">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s" s="58">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="60">
-        <v>29</v>
+      <c r="A11" t="s" s="40">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1497,177 +1415,149 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="61">
+      <c r="A1" t="s" s="41">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="62">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="63">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="64">
-        <v>30</v>
+      <c r="B1" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="44">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="65">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="66">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="67">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="68">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="70">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="71">
+      <c r="A2" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="72">
+      <c r="A3" t="s" s="52">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="73">
+      <c r="B3" t="s" s="53">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="74">
+      <c r="C3" t="s" s="54">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="75">
+      <c r="D3" t="s" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="76">
+      <c r="A4" t="s" s="56">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="57">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="60">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="61">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="64">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="65">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="68">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="69">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="72">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="77">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s" s="78">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="80">
+      <c r="B8" t="s" s="73">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="76">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="80">
         <v>14</v>
-      </c>
-      <c r="B5" t="s" s="81">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s" s="82">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s" s="83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="84">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s" s="85">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="88">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s" s="89">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="92">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s" s="93">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s" s="94">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="96">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s" s="97">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s" s="98">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="100">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s" s="101">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s" s="102">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s" s="105">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="108">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1689,191 +1579,313 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="109">
+      <c r="A1" t="s" s="81">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="110">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="111">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="112">
-        <v>37</v>
+      <c r="B1" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="84">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="113">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="117">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="119">
+      <c r="A2" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="89">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="120">
+      <c r="A3" t="s" s="92">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="121">
+      <c r="B3" t="s" s="93">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="122">
+      <c r="C3" t="s" s="94">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="123">
+      <c r="D3" t="s" s="95">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="124">
+      <c r="A4" t="s" s="96">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="97">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="100">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="101">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="104">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="105">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="108">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="109">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="110">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="112">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="125">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="128">
+      <c r="B8" t="s" s="113">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="116">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="117">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="120">
         <v>14</v>
-      </c>
-      <c r="B5" t="s" s="129">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s" s="130">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s" s="131">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s" s="133">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s" s="134">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="136">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s" s="137">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s" s="138">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s" s="139">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="140">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="141">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="142">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s" s="143">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="144">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="145">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="148">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s" s="149">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="150">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="152">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s" s="153">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="154">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="156">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s" s="157">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="160">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="121">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="123">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="124">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="125">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="126">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="127">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="128">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="129">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="130">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="133">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="134">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="136">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="137">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="140">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="141">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="142">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="144">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="145">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="148">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="149">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="152">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="153">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="154">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="156">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="157">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="160">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
@@ -59,7 +59,7 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 13:59:37</t>
+    <t>Fri Oct 2016 14:07:05</t>
   </si>
   <si>
     <t>Meal Type : Low Carb  Route: 1</t>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
@@ -10,12 +10,14 @@
     <sheet name="ChefReports Route - 1" r:id="rId4" sheetId="2"/>
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
     <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
+    <sheet name="ChefReports Route - 4" r:id="rId7" sheetId="5"/>
+    <sheet name="ChefReports Route - 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="20">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -59,7 +61,7 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 14:07:05</t>
+    <t>Fri Oct 2016 15:02:13</t>
   </si>
   <si>
     <t>Meal Type : Low Carb  Route: 1</t>
@@ -70,19 +72,399 @@
   <si>
     <t>Meal Type : Low Carb  Route: 3</t>
   </si>
+  <si>
+    <t>Meal Type : Low Carb  Route: 4</t>
+  </si>
+  <si>
+    <t>Meal Type : Low Carb  Route: 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="173">
+  <fonts count="259">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -941,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1202,6 +1584,150 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="148" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1889,4 +2415,332 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="161">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="162">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="163">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="164">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="165">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="166">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="168">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="170">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="172">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="173">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="174">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="176">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="177">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="180">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="181">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="182">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="184">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="185">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="186">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="188">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="189">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="190">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="192">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="193">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="196">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="197">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="198">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="200">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="201">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="202">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="203">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="204">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="205">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="206">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="207">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="208">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="209">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="210">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="212">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="213">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="214">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="216">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="217">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="218">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="220">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="221">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="222">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="224">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="225">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="226">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="228">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="229">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="230">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="232">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="233">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="234">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="236">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="237">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="238">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="240">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
@@ -11,13 +11,12 @@
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
     <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
     <sheet name="ChefReports Route - 4" r:id="rId7" sheetId="5"/>
-    <sheet name="ChefReports Route - 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="19">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -61,7 +60,7 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 15:02:13</t>
+    <t>Fri Oct 2016 15:19:41</t>
   </si>
   <si>
     <t>Meal Type : Low Carb  Route: 1</t>
@@ -75,209 +74,19 @@
   <si>
     <t>Meal Type : Low Carb  Route: 4</t>
   </si>
-  <si>
-    <t>Meal Type : Low Carb  Route: 5</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="259">
+  <fonts count="216">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1323,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1656,78 +1465,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="191" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -2579,168 +2316,4 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="15.625" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="31.25" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="15.625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="201">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="203">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="204">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="205">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="206">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="207">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="208">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="209">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="210">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="212">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="213">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="214">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="215">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="216">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="217">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="218">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="220">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="221">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="222">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="224">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="225">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="226">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="228">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="229">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="230">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="232">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="233">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="234">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="236">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="237">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="238">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="240">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:D11"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Low Carb ).xlsx
@@ -60,7 +60,7 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 15:19:41</t>
+    <t>Fri Oct 2016 15:24:58</t>
   </si>
   <si>
     <t>Meal Type : Low Carb  Route: 1</t>
